--- a/Dados_eleições_2024.1_Dj.xlsx
+++ b/Dados_eleições_2024.1_Dj.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O416"/>
+  <dimension ref="A1:P416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>status_fiscalizacao</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>falta_militar</t>
         </is>
       </c>
@@ -561,7 +566,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,7 +638,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -695,7 +710,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -762,7 +782,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -829,7 +854,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -896,7 +926,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -963,7 +998,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1030,7 +1070,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1097,7 +1142,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1164,7 +1214,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1231,7 +1286,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1298,7 +1358,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1365,7 +1430,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1432,7 +1502,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1499,7 +1574,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1566,7 +1646,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1633,7 +1718,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1700,7 +1790,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1767,7 +1862,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1834,7 +1934,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1901,7 +2006,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,7 +2078,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O23" t="n">
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2035,7 +2150,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2102,7 +2222,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O25" t="n">
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2169,7 +2294,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O26" t="n">
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2236,7 +2366,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O27" t="n">
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2303,7 +2438,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O28" t="n">
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,7 +2510,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O29" t="n">
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2437,7 +2582,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O30" t="n">
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2504,7 +2654,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O31" t="n">
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2571,7 +2726,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O32" t="n">
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2638,7 +2798,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O33" t="n">
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2705,7 +2870,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O34" t="n">
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2772,7 +2942,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O35" t="n">
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2839,7 +3014,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2906,7 +3086,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O37" t="n">
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2973,7 +3158,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O38" t="n">
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3040,7 +3230,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O39" t="n">
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3107,7 +3302,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O40" t="n">
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3174,7 +3374,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O41" t="n">
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3241,7 +3446,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O42" t="n">
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3308,7 +3518,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O43" t="n">
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,7 +3590,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O44" t="n">
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3442,7 +3662,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O45" t="n">
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3509,7 +3734,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O46" t="n">
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3576,7 +3806,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O47" t="n">
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3643,7 +3878,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O48" t="n">
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,7 +3950,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O49" t="n">
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3777,7 +4022,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O50" t="n">
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3844,7 +4094,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O51" t="n">
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3911,7 +4166,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O52" t="n">
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3978,7 +4238,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O53" t="n">
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4045,7 +4310,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O54" t="n">
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,7 +4382,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O55" t="n">
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4179,7 +4454,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O56" t="n">
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4246,7 +4526,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O57" t="n">
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4313,7 +4598,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O58" t="n">
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4380,7 +4670,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O59" t="n">
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4447,7 +4742,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O60" t="n">
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4514,7 +4814,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O61" t="n">
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4581,7 +4886,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O62" t="n">
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4648,7 +4958,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O63" t="n">
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4715,7 +5030,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O64" t="n">
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4782,7 +5102,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O65" t="n">
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4849,7 +5174,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O66" t="n">
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4916,7 +5246,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O67" t="n">
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4983,7 +5318,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O68" t="n">
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5050,7 +5390,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O69" t="n">
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5117,7 +5462,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O70" t="n">
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5184,7 +5534,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O71" t="n">
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5251,7 +5606,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O72" t="n">
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5318,7 +5678,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O73" t="n">
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5385,7 +5750,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O74" t="n">
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,7 +5822,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O75" t="n">
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5519,7 +5894,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O76" t="n">
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5586,7 +5966,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O77" t="n">
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5653,7 +6038,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O78" t="n">
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,7 +6110,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O79" t="n">
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5787,7 +6182,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O80" t="n">
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5854,7 +6254,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O81" t="n">
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5921,7 +6326,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O82" t="n">
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5988,7 +6398,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O83" t="n">
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6055,7 +6470,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O84" t="n">
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6122,7 +6542,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O85" t="n">
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6189,7 +6614,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O86" t="n">
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6256,7 +6686,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O87" t="n">
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6323,7 +6758,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O88" t="n">
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6390,7 +6830,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O89" t="n">
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6457,7 +6902,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O90" t="n">
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6524,7 +6974,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O91" t="n">
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6591,7 +7046,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O92" t="n">
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6658,7 +7118,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O93" t="n">
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6725,7 +7190,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O94" t="n">
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6792,7 +7262,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O95" t="n">
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6859,7 +7334,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O96" t="n">
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6926,7 +7406,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O97" t="n">
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6993,7 +7478,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O98" t="n">
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7060,7 +7550,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O99" t="n">
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7127,7 +7622,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O100" t="n">
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,7 +7694,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O101" t="n">
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7261,7 +7766,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O102" t="n">
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7328,7 +7838,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O103" t="n">
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7395,7 +7910,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O104" t="n">
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7462,7 +7982,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O105" t="n">
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7529,7 +8054,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O106" t="n">
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7596,7 +8126,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O107" t="n">
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7663,7 +8198,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O108" t="n">
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7730,7 +8270,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O109" t="n">
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7797,7 +8342,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O110" t="n">
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7864,7 +8414,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O111" t="n">
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7931,7 +8486,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O112" t="n">
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7998,7 +8558,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O113" t="n">
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8065,7 +8630,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O114" t="n">
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8132,7 +8702,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O115" t="n">
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8199,7 +8774,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O116" t="n">
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8266,7 +8846,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O117" t="n">
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8333,7 +8918,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O118" t="n">
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8400,7 +8990,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O119" t="n">
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8467,7 +9062,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O120" t="n">
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8534,7 +9134,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O121" t="n">
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8601,7 +9206,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O122" t="n">
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8668,7 +9278,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O123" t="n">
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8735,7 +9350,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O124" t="n">
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8802,7 +9422,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O125" t="n">
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8869,7 +9494,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O126" t="n">
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8936,7 +9566,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O127" t="n">
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9003,7 +9638,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O128" t="n">
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9070,7 +9710,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O129" t="n">
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9137,7 +9782,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O130" t="n">
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9204,7 +9854,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O131" t="n">
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9271,7 +9926,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O132" t="n">
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9338,7 +9998,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O133" t="n">
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9405,7 +10070,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O134" t="n">
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9472,7 +10142,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O135" t="n">
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9539,7 +10214,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O136" t="n">
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9606,7 +10286,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O137" t="n">
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9673,7 +10358,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O138" t="n">
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9740,7 +10430,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O139" t="n">
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9807,7 +10502,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O140" t="n">
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9874,7 +10574,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O141" t="n">
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9941,7 +10646,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O142" t="n">
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10008,7 +10718,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O143" t="n">
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10075,7 +10790,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O144" t="n">
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10142,7 +10862,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O145" t="n">
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10209,7 +10934,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O146" t="n">
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10276,7 +11006,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O147" t="n">
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10343,7 +11078,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O148" t="n">
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10410,7 +11150,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O149" t="n">
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10477,7 +11222,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O150" t="n">
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10544,7 +11294,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O151" t="n">
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10611,7 +11366,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O152" t="n">
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10678,7 +11438,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O153" t="n">
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10745,7 +11510,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O154" t="n">
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10812,7 +11582,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O155" t="n">
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10879,7 +11654,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O156" t="n">
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10946,7 +11726,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O157" t="n">
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11013,7 +11798,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O158" t="n">
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11080,7 +11870,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O159" t="n">
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11147,7 +11942,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O160" t="n">
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11214,7 +12014,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O161" t="n">
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11281,7 +12086,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O162" t="n">
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11348,7 +12158,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O163" t="n">
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11415,7 +12230,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O164" t="n">
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11482,7 +12302,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O165" t="n">
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11549,7 +12374,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O166" t="n">
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11616,7 +12446,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O167" t="n">
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11683,7 +12518,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O168" t="n">
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11750,7 +12590,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O169" t="n">
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11817,7 +12662,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O170" t="n">
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11884,7 +12734,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O171" t="n">
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11951,7 +12806,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O172" t="n">
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12018,7 +12878,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O173" t="n">
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12085,7 +12950,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O174" t="n">
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12152,7 +13022,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O175" t="n">
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12219,7 +13094,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O176" t="n">
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12286,7 +13166,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O177" t="n">
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12353,7 +13238,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O178" t="n">
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12420,7 +13310,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O179" t="n">
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12487,7 +13382,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O180" t="n">
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12554,7 +13454,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O181" t="n">
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12621,7 +13526,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O182" t="n">
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12688,7 +13598,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O183" t="n">
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12755,7 +13670,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O184" t="n">
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12822,7 +13742,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O185" t="n">
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12889,7 +13814,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O186" t="n">
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12956,7 +13886,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O187" t="n">
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13023,7 +13958,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O188" t="n">
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13090,7 +14030,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O189" t="n">
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13157,7 +14102,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O190" t="n">
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13224,7 +14174,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O191" t="n">
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13291,7 +14246,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O192" t="n">
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13358,7 +14318,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O193" t="n">
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13425,7 +14390,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O194" t="n">
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13492,7 +14462,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O195" t="n">
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13559,7 +14534,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O196" t="n">
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13626,7 +14606,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O197" t="n">
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13693,7 +14678,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O198" t="n">
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13760,7 +14750,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O199" t="n">
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13827,7 +14822,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O200" t="n">
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13894,7 +14894,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O201" t="n">
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13961,7 +14966,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O202" t="n">
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14028,7 +15038,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O203" t="n">
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14095,7 +15110,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O204" t="n">
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14162,7 +15182,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O205" t="n">
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14229,7 +15254,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O206" t="n">
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14296,7 +15326,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O207" t="n">
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14363,7 +15398,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O208" t="n">
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14430,7 +15470,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O209" t="n">
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14497,7 +15542,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O210" t="n">
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14564,7 +15614,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O211" t="n">
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14631,7 +15686,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O212" t="n">
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14698,7 +15758,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O213" t="n">
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14765,7 +15830,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O214" t="n">
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14832,7 +15902,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O215" t="n">
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14899,7 +15974,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O216" t="n">
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14966,7 +16046,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O217" t="n">
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15033,7 +16118,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O218" t="n">
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15100,7 +16190,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O219" t="n">
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15167,7 +16262,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O220" t="n">
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15234,7 +16334,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O221" t="n">
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15301,7 +16406,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O222" t="n">
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15368,7 +16478,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O223" t="n">
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15435,7 +16550,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O224" t="n">
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15502,7 +16622,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O225" t="n">
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15569,7 +16694,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O226" t="n">
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15636,7 +16766,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O227" t="n">
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15703,7 +16838,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O228" t="n">
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15770,7 +16910,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O229" t="n">
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15837,7 +16982,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O230" t="n">
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15904,7 +17054,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O231" t="n">
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15971,7 +17126,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O232" t="n">
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16038,7 +17198,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O233" t="n">
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16105,7 +17270,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O234" t="n">
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16172,7 +17342,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O235" t="n">
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16239,7 +17414,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O236" t="n">
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16306,7 +17486,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O237" t="n">
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16373,7 +17558,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O238" t="n">
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16440,7 +17630,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O239" t="n">
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16507,7 +17702,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O240" t="n">
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16570,7 +17770,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O241" t="n">
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16637,7 +17842,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O242" t="n">
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16704,7 +17914,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O243" t="n">
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16767,7 +17982,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O244" t="n">
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16834,7 +18054,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O245" t="n">
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16901,7 +18126,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O246" t="n">
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16968,7 +18198,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O247" t="n">
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17035,7 +18270,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O248" t="n">
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17102,7 +18342,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O249" t="n">
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17169,7 +18414,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O250" t="n">
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17236,7 +18486,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O251" t="n">
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17303,7 +18558,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O252" t="n">
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17370,7 +18630,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O253" t="n">
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17437,7 +18702,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O254" t="n">
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17504,7 +18774,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O255" t="n">
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17571,7 +18846,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O256" t="n">
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17638,7 +18918,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O257" t="n">
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17705,7 +18990,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O258" t="n">
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17772,7 +19062,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O259" t="n">
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17839,7 +19134,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O260" t="n">
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17906,7 +19206,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O261" t="n">
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17973,7 +19278,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O262" t="n">
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18040,7 +19350,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O263" t="n">
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18107,7 +19422,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O264" t="n">
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18174,7 +19494,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O265" t="n">
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18241,7 +19566,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O266" t="n">
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18308,7 +19638,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O267" t="n">
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18375,7 +19710,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O268" t="n">
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18442,7 +19782,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O269" t="n">
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18509,7 +19854,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O270" t="n">
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18576,7 +19926,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O271" t="n">
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18643,7 +19998,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O272" t="n">
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18710,7 +20070,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O273" t="n">
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18777,7 +20142,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O274" t="n">
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18844,7 +20214,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O275" t="n">
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18911,7 +20286,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O276" t="n">
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18978,7 +20358,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O277" t="n">
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19045,7 +20430,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O278" t="n">
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19112,7 +20502,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O279" t="n">
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19179,7 +20574,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O280" t="n">
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19246,7 +20646,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O281" t="n">
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19313,7 +20718,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O282" t="n">
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19380,7 +20790,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O283" t="n">
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19447,7 +20862,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O284" t="n">
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19514,7 +20934,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O285" t="n">
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19581,7 +21006,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O286" t="n">
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19648,7 +21078,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O287" t="n">
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19715,7 +21150,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O288" t="n">
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19782,7 +21222,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O289" t="n">
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19849,7 +21294,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O290" t="n">
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19916,7 +21366,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O291" t="n">
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19983,7 +21438,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O292" t="n">
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20050,7 +21510,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O293" t="n">
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20117,7 +21582,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O294" t="n">
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20184,7 +21654,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O295" t="n">
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20251,7 +21726,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O296" t="n">
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P296" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20318,7 +21798,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O297" t="n">
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20385,7 +21870,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O298" t="n">
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P298" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20452,7 +21942,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O299" t="n">
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20519,7 +22014,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O300" t="n">
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20586,7 +22086,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O301" t="n">
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20653,7 +22158,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O302" t="n">
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20720,7 +22230,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O303" t="n">
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20787,7 +22302,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O304" t="n">
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20850,7 +22370,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O305" t="n">
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20917,7 +22442,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O306" t="n">
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20984,7 +22514,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O307" t="n">
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P307" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21051,7 +22586,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O308" t="n">
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21118,7 +22658,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O309" t="n">
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P309" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21185,7 +22730,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O310" t="n">
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21252,7 +22802,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O311" t="n">
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P311" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21319,7 +22874,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O312" t="n">
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21386,7 +22946,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O313" t="n">
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P313" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21453,7 +23018,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O314" t="n">
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21520,7 +23090,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O315" t="n">
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P315" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21587,7 +23162,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O316" t="n">
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21654,7 +23234,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O317" t="n">
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21721,7 +23306,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O318" t="n">
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P318" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21788,7 +23378,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O319" t="n">
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P319" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21855,7 +23450,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O320" t="n">
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P320" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21922,7 +23522,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O321" t="n">
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P321" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21989,7 +23594,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O322" t="n">
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P322" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22056,7 +23666,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O323" t="n">
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P323" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22123,7 +23738,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O324" t="n">
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P324" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22190,7 +23810,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O325" t="n">
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P325" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22257,7 +23882,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O326" t="n">
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22324,7 +23954,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O327" t="n">
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22391,7 +24026,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O328" t="n">
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P328" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22458,7 +24098,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O329" t="n">
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P329" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22525,7 +24170,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O330" t="n">
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P330" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22592,7 +24242,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O331" t="n">
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P331" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22659,7 +24314,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O332" t="n">
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P332" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22726,7 +24386,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O333" t="n">
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P333" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22793,7 +24458,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O334" t="n">
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P334" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22860,7 +24530,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O335" t="n">
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P335" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22927,7 +24602,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O336" t="n">
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P336" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22994,7 +24674,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O337" t="n">
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P337" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23061,7 +24746,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O338" t="n">
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P338" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23128,7 +24818,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O339" t="n">
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P339" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23195,7 +24890,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O340" t="n">
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P340" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23262,7 +24962,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O341" t="n">
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P341" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23329,7 +25034,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O342" t="n">
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P342" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23396,7 +25106,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O343" t="n">
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P343" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23463,7 +25178,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O344" t="n">
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P344" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23530,7 +25250,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O345" t="n">
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P345" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23597,7 +25322,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O346" t="n">
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P346" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23664,7 +25394,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O347" t="n">
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P347" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23731,7 +25466,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O348" t="n">
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P348" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23798,7 +25538,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O349" t="n">
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P349" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23865,7 +25610,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O350" t="n">
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P350" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23932,7 +25682,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O351" t="n">
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P351" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23999,7 +25754,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O352" t="n">
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P352" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24066,7 +25826,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O353" t="n">
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P353" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24133,7 +25898,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O354" t="n">
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P354" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24200,7 +25970,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O355" t="n">
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P355" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24267,7 +26042,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O356" t="n">
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P356" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24334,7 +26114,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O357" t="n">
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P357" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24401,7 +26186,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O358" t="n">
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P358" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24468,7 +26258,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O359" t="n">
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P359" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24535,7 +26330,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O360" t="n">
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P360" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24602,7 +26402,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O361" t="n">
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P361" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24669,7 +26474,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O362" t="n">
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P362" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24736,7 +26546,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O363" t="n">
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P363" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24803,7 +26618,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O364" t="n">
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P364" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24870,7 +26690,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O365" t="n">
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P365" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24937,7 +26762,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O366" t="n">
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P366" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25004,7 +26834,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O367" t="n">
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P367" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25071,7 +26906,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O368" t="n">
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P368" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25138,7 +26978,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O369" t="n">
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P369" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25205,7 +27050,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O370" t="n">
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P370" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25272,7 +27122,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O371" t="n">
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P371" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25339,7 +27194,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O372" t="n">
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P372" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25406,7 +27266,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O373" t="n">
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P373" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25473,7 +27338,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O374" t="n">
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P374" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25540,7 +27410,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O375" t="n">
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P375" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25607,7 +27482,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O376" t="n">
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P376" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25674,7 +27554,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O377" t="n">
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P377" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25741,7 +27626,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O378" t="n">
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P378" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25808,7 +27698,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O379" t="n">
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P379" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25875,7 +27770,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O380" t="n">
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P380" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25942,7 +27842,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O381" t="n">
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P381" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26009,7 +27914,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O382" t="n">
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P382" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26076,7 +27986,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O383" t="n">
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P383" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26143,7 +28058,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O384" t="n">
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P384" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26210,7 +28130,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O385" t="n">
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P385" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26277,7 +28202,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O386" t="n">
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P386" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26344,7 +28274,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O387" t="n">
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P387" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26411,7 +28346,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O388" t="n">
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P388" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26478,7 +28418,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O389" t="n">
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P389" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26545,7 +28490,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O390" t="n">
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P390" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26612,7 +28562,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O391" t="n">
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P391" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26679,7 +28634,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O392" t="n">
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P392" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26746,7 +28706,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O393" t="n">
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P393" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26813,7 +28778,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O394" t="n">
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P394" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26880,7 +28850,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O395" t="n">
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P395" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26947,7 +28922,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O396" t="n">
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P396" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27014,7 +28994,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O397" t="n">
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P397" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27081,7 +29066,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O398" t="n">
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P398" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27148,7 +29138,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O399" t="n">
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P399" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27215,7 +29210,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O400" t="n">
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P400" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27282,7 +29282,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O401" t="n">
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P401" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27349,7 +29354,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O402" t="n">
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P402" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27416,7 +29426,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O403" t="n">
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P403" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27483,7 +29498,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O404" t="n">
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P404" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27550,7 +29570,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O405" t="n">
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P405" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27617,7 +29642,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O406" t="n">
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P406" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27684,7 +29714,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O407" t="n">
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P407" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27751,7 +29786,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O408" t="n">
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P408" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27818,7 +29858,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O409" t="n">
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P409" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27885,7 +29930,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O410" t="n">
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P410" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27952,7 +30002,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O411" t="n">
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P411" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28019,7 +30074,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O412" t="n">
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P412" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28086,7 +30146,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O413" t="n">
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P413" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28153,7 +30218,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O414" t="n">
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P414" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28212,7 +30282,12 @@
           <t>Desmobilizado</t>
         </is>
       </c>
-      <c r="O415" t="n">
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>Não Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P415" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28271,15 +30346,20 @@
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>Inativo</t>
+          <t>Ativo</t>
         </is>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>Desmobilizado</t>
-        </is>
-      </c>
-      <c r="O416" t="n">
+          <t>Instalada</t>
+        </is>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>Fiscalizado</t>
+        </is>
+      </c>
+      <c r="P416" t="n">
         <v>2</v>
       </c>
     </row>
